--- a/Grafieken/max.xlsx
+++ b/Grafieken/max.xlsx
@@ -74,7 +74,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -92,14 +92,14 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -179,18 +179,21 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
+                    <a:shade val="58000"/>
                     <a:shade val="51000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="80000">
                   <a:schemeClr val="accent1">
+                    <a:shade val="58000"/>
                     <a:shade val="93000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
+                    <a:shade val="58000"/>
                     <a:shade val="94000"/>
                     <a:satMod val="135000"/>
                   </a:schemeClr>
@@ -258,19 +261,22 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="86000"/>
                     <a:shade val="51000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="86000"/>
                     <a:shade val="93000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="86000"/>
                     <a:shade val="94000"/>
                     <a:satMod val="135000"/>
                   </a:schemeClr>
@@ -338,19 +344,22 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="86000"/>
                     <a:shade val="51000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="80000">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="86000"/>
                     <a:shade val="93000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="86000"/>
                     <a:shade val="94000"/>
                     <a:satMod val="135000"/>
                   </a:schemeClr>
@@ -418,19 +427,22 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
                     <a:shade val="51000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="80000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
                     <a:shade val="93000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
                     <a:shade val="94000"/>
                     <a:satMod val="135000"/>
                   </a:schemeClr>
@@ -490,11 +502,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="183149648"/>
-        <c:axId val="183150208"/>
+        <c:axId val="242117584"/>
+        <c:axId val="242117976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183149648"/>
+        <c:axId val="242117584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +546,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183150208"/>
+        <c:crossAx val="242117976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -542,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183150208"/>
+        <c:axId val="242117976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -591,7 +603,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183149648"/>
+        <c:crossAx val="242117584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -670,42 +682,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1214,9 +1192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1254,7 +1232,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1326,7 +1304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1502,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
